--- a/biology/Botanique/Friuli_Isonzo/Friuli_Isonzo.xlsx
+++ b/biology/Botanique/Friuli_Isonzo/Friuli_Isonzo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Friuli Isonzo est un vin italien de la région Frioul-Vénétie Julienne doté d'une appellation DOC depuis le 25 mars 1988. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret.
 </t>
@@ -511,7 +523,9 @@
           <t>Aire de l'appellation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Gorizia.
 Romans d'Isonzo, Gradisca d'Isonzo, Villesse, San Pier d'Isonzo, Turriaco, Medea, Moraro, Mariano del Friuli et en partie les communes Cormons, Capriva del Friuli, San Lorenzo Isontino, Monfalcone, Mossa, Gorizia, Fogliano Redipuglia, Farra d'Isonzo, Savogna d'Isonzo, Sagrado, Ronchi dei Legionari, San Canzian d'Isonzo et Staranzano.
@@ -544,7 +558,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les cépages les plus importants sont :
 Chardonnay;
@@ -593,7 +609,9 @@
           <t>Vins, appellations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous l’appellation, les vins suivants sont autorisés :
 Friuli Isonzo Cabernet
